--- a/Instances/02_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/02_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1227,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1049.792</v>
+        <v>2817.728</v>
       </c>
       <c r="F2" t="n">
         <v>0.128</v>
@@ -1261,7 +1261,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>49.04640000000001</v>
+        <v>100.9152</v>
       </c>
       <c r="F3" t="n">
         <v>0.14808</v>
@@ -1295,7 +1295,7 @@
         <v>0.037</v>
       </c>
       <c r="E4" t="n">
-        <v>32.90880000000001</v>
+        <v>37.04640000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.148</v>
@@ -1329,7 +1329,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>35.43360000000001</v>
+        <v>136.2144</v>
       </c>
       <c r="F5" t="n">
         <v>0.14776</v>
@@ -1363,7 +1363,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>40.08000000000001</v>
+        <v>148.4832</v>
       </c>
       <c r="F6" t="n">
         <v>0.14776</v>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4061</v>
+        <v>2886</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1992</v>
+        <v>2843</v>
       </c>
       <c r="D8" t="n">
         <v>0.037</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>7208</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
@@ -1527,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13610</v>
+        <v>26486</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>2.24796</v>
+        <v>4.625280000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.12888</v>
@@ -1561,13 +1561,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9269</v>
+        <v>2173</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>1.3712</v>
+        <v>1.5436</v>
       </c>
       <c r="F12" t="n">
         <v>0.1288</v>
@@ -1595,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>654</v>
+        <v>20946</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>1.03348</v>
+        <v>3.97292</v>
       </c>
       <c r="F13" t="n">
         <v>0.12856</v>
@@ -1629,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3073</v>
+        <v>24525</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>1.169</v>
+        <v>4.33076</v>
       </c>
       <c r="F14" t="n">
         <v>0.12856</v>
@@ -1664,7 +1664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4061</v>
+        <v>2886</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2843</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13610</v>
+        <v>23263</v>
       </c>
       <c r="H4" t="n">
-        <v>5449</v>
+        <v>2173</v>
       </c>
       <c r="I4" t="n">
-        <v>654</v>
+        <v>10299</v>
       </c>
       <c r="J4" t="n">
-        <v>686</v>
+        <v>1791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3223</v>
       </c>
       <c r="H5" t="n">
-        <v>3820</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10647</v>
       </c>
       <c r="J5" t="n">
-        <v>1733</v>
+        <v>1788</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7871</v>
+        <v>8982</v>
       </c>
       <c r="H6" t="n">
-        <v>5877</v>
+        <v>4357</v>
       </c>
       <c r="I6" t="n">
-        <v>10593</v>
+        <v>3582</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1956,6 +1956,182 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5033</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3969</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4516</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11904</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1566</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9171</v>
+      </c>
+      <c r="H9" t="n">
+        <v>273</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14137</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5680</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15856</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1970,7 +2146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>507.625</v>
+        <v>360.75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>355.375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2112,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>373.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1351.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2153,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2977.1875</v>
+        <v>5088.78125</v>
       </c>
       <c r="H4" t="n">
-        <v>1191.96875</v>
+        <v>475.34375</v>
       </c>
       <c r="I4" t="n">
-        <v>143.0625</v>
+        <v>2252.90625</v>
       </c>
       <c r="J4" t="n">
-        <v>150.0625</v>
+        <v>391.78125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2197,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>755.390625</v>
       </c>
       <c r="H5" t="n">
-        <v>895.3125</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2495.390625</v>
       </c>
       <c r="J5" t="n">
-        <v>406.171875</v>
+        <v>419.0625</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2241,16 +2417,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1906.2578125</v>
+        <v>2175.328125</v>
       </c>
       <c r="H6" t="n">
-        <v>1423.3359375</v>
+        <v>1055.2109375</v>
       </c>
       <c r="I6" t="n">
-        <v>2565.4921875</v>
+        <v>867.515625</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>301.0390625</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2262,6 +2438,182 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1238.58984375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>976.74609375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1111.359375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2952.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>388.44140625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2283.7939453125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>67.9833984375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3520.4443359375</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1417.2265625</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3956.2578125</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>127120</v>
+        <v>298380</v>
       </c>
     </row>
     <row r="3">
@@ -2302,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>459284</v>
+        <v>440270</v>
       </c>
     </row>
     <row r="4">
@@ -2310,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492090</v>
+        <v>440270</v>
       </c>
     </row>
     <row r="5">
@@ -2318,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>984180</v>
+        <v>440270</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2383,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2402,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2421,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2440,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2456,7 +2808,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2475,7 +2827,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2494,7 +2846,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2513,7 +2865,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2538,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2557,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2576,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2595,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
